--- a/results/I3_N5_M3_T30_C100_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3960085937535</v>
+        <v>2275.602186823345</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.21600859374647</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.134510687494965</v>
+        <v>17.29261454069673</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.134510687494965</v>
+        <v>4.791701159296143</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>321.360000000007</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.82</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.86548931250506</v>
+        <v>13.37221626484706</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.79170115929614</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.28323475891761</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1090,12 +1090,222 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.4949999999999</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>118.1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>112.0749999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>120.1549999999999</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>128.6799999999999</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999935</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.58999999999935</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999935</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.98999999999934</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>82.84000000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.06500000000008</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.78000000000009</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>80.64500000000007</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.81000000000007</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>126.4949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>118.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>112.0749999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>120.1549999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>128.6799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>104.4450000000006</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>101.6750000000006</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.7150000000006</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5350000000006</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>101.85</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>106.1700000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>112.4900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>102.5700000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>110.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>107.6750000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.49499999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.07499999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.15499999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>28.67999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.445000000000577</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.675000000000577</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.71500000000059</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.53500000000059</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.170000000000372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.49000000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.57000000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.675000000000359</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2500,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2301,7 +2511,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2312,7 +2522,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2323,7 +2533,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2334,12 +2544,67 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
